--- a/17_TwigFarm/data_similarity/results/구글_파파고_엑셀.xlsx
+++ b/17_TwigFarm/data_similarity/results/구글_파파고_엑셀.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haley/Desktop/GIT/TIL/17_TwigFarm/data_similarity/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2DB0E7-5456-0446-8DF4-8E46C77CDE79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277210F5-BF22-8640-B1F0-8449CAF7986A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="156">
   <si>
     <t>No</t>
   </si>
@@ -485,19 +485,70 @@
   </si>
   <si>
     <t>Unfortunately, I have some unfortunate news to tell you.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>leanred of your company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>known your company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -884,10 +935,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -911,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -925,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -995,7 +1046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1051,7 +1102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1065,7 +1116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1093,7 +1144,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1107,7 +1158,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -1121,7 +1172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -1135,7 +1186,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -1149,7 +1200,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -1275,7 +1326,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
@@ -1289,7 +1340,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>93</v>
       </c>
@@ -1303,7 +1354,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
@@ -1387,7 +1438,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>115</v>
       </c>
@@ -1429,7 +1480,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>121</v>
       </c>
@@ -1443,7 +1494,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>123</v>
       </c>
@@ -1457,7 +1508,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>126</v>
       </c>
@@ -1471,7 +1522,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>129</v>
       </c>
@@ -1485,7 +1536,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>131</v>
       </c>
@@ -1499,7 +1550,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>133</v>
       </c>
@@ -1527,7 +1578,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
@@ -1541,7 +1592,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>140</v>
       </c>
@@ -1583,7 +1634,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>149</v>
       </c>
@@ -1609,16 +1660,29 @@
       </c>
       <c r="D51" s="1" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D51" xr:uid="{7E6600B8-B1DC-2845-A485-B4E9A2218878}">
     <filterColumn colId="2">
       <filters>
+        <filter val="0"/>
         <filter val="1"/>
+        <filter val="11"/>
         <filter val="4"/>
         <filter val="6"/>
         <filter val="8"/>
+        <filter val="9"/>
       </filters>
     </filterColumn>
   </autoFilter>
